--- a/biology/Botanique/Acroceras_macrum/Acroceras_macrum.xlsx
+++ b/biology/Botanique/Acroceras_macrum/Acroceras_macrum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Acroceras macrum est une espèce de plantes monocotylédones de la famille des Poaceae, sous-famille des Panicoideae, originaire d'Afrique tropicale et d'Afrique australe. Elle s'est naturalisée en Australie.
 Ce sont des plantes herbacées vivaces, aux rhizomes allongés, aux tiges  (chaumes) dressées ou décombantes, de 20  à   100 cm de long.
@@ -512,9 +524,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (23 juillet 2017)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (23 juillet 2017) :
 Neohusnotia macra (Stapf) C.C.Hsu
 Panicum gimmae Fiori</t>
         </is>
